--- a/biology/Botanique/Cistus_ladanifer/Cistus_ladanifer.xlsx
+++ b/biology/Botanique/Cistus_ladanifer/Cistus_ladanifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ciste porte-labdanum ou ciste à gomme, (Cistus ladanifer ou Cistus ladaniferus) est un arbuste des régions méditerranéennes.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arbuste de 6 dm à 2,5 m de haut.
 Feuilles vert-sombre, collantes, opposées, sessiles, linéaires[Quoi ?] à lancéolées, jusqu'à 12 cm de long et 25 mm de large.
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Méditerranée occidentale: Espagne, Portugal, Sicile, Calabre, golfe de Naples, Algérie et Maroc.
-Naturalisé en France en quelques points suffisamment chauds de la bordure méditerranéenne[1] mais aussi en Vendée et plus précisément autour de Jard-sur-Mer, profitant du microclimat local[2] de renommée mondiale.
+Naturalisé en France en quelques points suffisamment chauds de la bordure méditerranéenne mais aussi en Vendée et plus précisément autour de Jard-sur-Mer, profitant du microclimat local de renommée mondiale.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'huile essentielle de ciste porte-labdanum est connue depuis l'Antiquité pour ses propriétés hémostatiques impressionnantes[3], permettant de stopper en quelques secondes des saignements spectaculaires et de soigner les mutilations, entailles et incisions fréquentes sur les champs de bataille de l'époque[4]. Les chirurgiens romains utilisaient l'huile, appliquée en gouttes sur la plaie, pour arrêter l'hémorragie après l'amputation d'un membre[5]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile essentielle de ciste porte-labdanum est connue depuis l'Antiquité pour ses propriétés hémostatiques impressionnantes, permettant de stopper en quelques secondes des saignements spectaculaires et de soigner les mutilations, entailles et incisions fréquentes sur les champs de bataille de l'époque. Les chirurgiens romains utilisaient l'huile, appliquée en gouttes sur la plaie, pour arrêter l'hémorragie après l'amputation d'un membre. 
 La gomme extraite de cette plante, le labdanum, est aussi utilisée en parfumerie (ne doit pas être confondu avec le "laudanum", une teinture d'opium très addictive). 
 </t>
         </is>
